--- a/output_analysis/START_4_SEC_0.5_ENERGY_2.0_EV-FACTOR_22_EV_25_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_0.5_ENERGY_2.0_EV-FACTOR_22_EV_25_FLEX_300_TPS.txt.xlsx
@@ -434,535 +434,540 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3 7 20 25 45</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 5 31 38</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>12 14 17 55 107</t>
-        </is>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4 17 34 37 165</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E3" t="n">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>133</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22 30</t>
-        </is>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6 36 43 56</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10 15 29 115</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18 32 298</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>26 38 92 94</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>33 87 171</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2 13 16 65</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>106</v>
+      </c>
+      <c r="E7" t="n">
+        <v>98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22 59 72 266</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25 45 46 49 60 67</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>152</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30 62 84 149</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>127</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>35 44 102 103</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>85</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3 39 51 291</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>140</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>54 55 57 78</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>105</v>
+      </c>
+      <c r="E13" t="n">
+        <v>96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>87 110 112 248</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>103</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>94 139 142 181</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>111</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>99 125 212 219</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>138</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8 9 21 50 158</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1 6 64</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D17" t="n">
+        <v>102</v>
+      </c>
+      <c r="E17" t="n">
         <v>98</v>
       </c>
-      <c r="E7" t="n">
-        <v>106</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="F17" t="n">
+        <v>13</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11 23 42 107</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>104</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14 24 28 216</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20 47 85 90</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>99</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27 41 88 166</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>85</v>
+      </c>
+      <c r="E21" t="n">
         <v>98</v>
       </c>
-      <c r="G7" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2 9 13 24 85 100 213</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>139</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10 19 65 68 251</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>120</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="F21" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16 51 62 82 139 187 289</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>113</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>29 69 80 106</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>98</v>
-      </c>
-      <c r="E11" t="n">
-        <v>129</v>
-      </c>
-      <c r="F11" t="n">
-        <v>98</v>
-      </c>
-      <c r="G11" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8 28 56 130 138 179</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>111</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>39 44 70 128 132 140 202</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="n">
-        <v>146</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>54 57 105 242</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>98</v>
-      </c>
-      <c r="E14" t="n">
-        <v>103</v>
-      </c>
-      <c r="F14" t="n">
-        <v>98</v>
-      </c>
-      <c r="G14" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>67 77 84 196 280</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="n">
-        <v>113</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>72 78 117 125 237</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>96</v>
-      </c>
-      <c r="E16" t="n">
-        <v>101</v>
-      </c>
-      <c r="F16" t="n">
-        <v>96</v>
-      </c>
-      <c r="G16" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>11 48 58 63 273</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>121</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>35 86 114 269</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>96</v>
-      </c>
-      <c r="E18" t="n">
-        <v>92</v>
-      </c>
-      <c r="F18" t="n">
-        <v>96</v>
-      </c>
-      <c r="G18" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>61 74 109 164 211</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>98</v>
-      </c>
-      <c r="E19" t="n">
-        <v>93</v>
-      </c>
-      <c r="F19" t="n">
-        <v>98</v>
-      </c>
-      <c r="G19" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>73 81 145 235 281</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>79 127 133 161</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" t="n">
-        <v>99</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
       <c r="G21" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
